--- a/sequences/05_retrieval_1.xlsx
+++ b/sequences/05_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1900,6 +1900,30 @@
       <c r="F3" t="s">
         <v>206</v>
       </c>
+      <c r="G3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
@@ -1964,6 +1988,30 @@
       <c r="F5" t="s">
         <v>206</v>
       </c>
+      <c r="G5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" t="s">
+        <v>206</v>
+      </c>
+      <c r="M5" t="s">
+        <v>206</v>
+      </c>
+      <c r="N5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -2072,6 +2120,30 @@
       <c r="F8" t="s">
         <v>206</v>
       </c>
+      <c r="G8" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" t="s">
+        <v>206</v>
+      </c>
+      <c r="M8" t="s">
+        <v>206</v>
+      </c>
+      <c r="N8" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
@@ -2092,6 +2164,30 @@
       <c r="F9" t="s">
         <v>206</v>
       </c>
+      <c r="G9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" t="s">
+        <v>206</v>
+      </c>
+      <c r="M9" t="s">
+        <v>206</v>
+      </c>
+      <c r="N9" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2332,6 +2428,30 @@
       <c r="F15" t="s">
         <v>206</v>
       </c>
+      <c r="G15" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" t="s">
+        <v>206</v>
+      </c>
+      <c r="J15" t="s">
+        <v>206</v>
+      </c>
+      <c r="K15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" t="s">
+        <v>206</v>
+      </c>
+      <c r="M15" t="s">
+        <v>206</v>
+      </c>
+      <c r="N15" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
@@ -2572,6 +2692,30 @@
       <c r="F21" t="s">
         <v>206</v>
       </c>
+      <c r="G21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="s">
+        <v>206</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
@@ -2724,6 +2868,30 @@
       <c r="F25" t="s">
         <v>206</v>
       </c>
+      <c r="G25" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="s">
+        <v>206</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
@@ -2788,6 +2956,30 @@
       <c r="F27" t="s">
         <v>206</v>
       </c>
+      <c r="G27" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" t="s">
+        <v>206</v>
+      </c>
+      <c r="N27" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2808,6 +3000,30 @@
       <c r="F28" t="s">
         <v>206</v>
       </c>
+      <c r="G28" t="s">
+        <v>206</v>
+      </c>
+      <c r="H28" t="s">
+        <v>206</v>
+      </c>
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s">
+        <v>206</v>
+      </c>
+      <c r="M28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N28" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
@@ -2872,6 +3088,30 @@
       <c r="F30" t="s">
         <v>206</v>
       </c>
+      <c r="G30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" t="s">
+        <v>206</v>
+      </c>
+      <c r="M30" t="s">
+        <v>206</v>
+      </c>
+      <c r="N30" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -2980,6 +3220,30 @@
       <c r="F33" t="s">
         <v>206</v>
       </c>
+      <c r="G33" t="s">
+        <v>206</v>
+      </c>
+      <c r="H33" t="s">
+        <v>206</v>
+      </c>
+      <c r="I33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" t="s">
+        <v>206</v>
+      </c>
+      <c r="L33" t="s">
+        <v>206</v>
+      </c>
+      <c r="M33" t="s">
+        <v>206</v>
+      </c>
+      <c r="N33" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
@@ -3044,6 +3308,30 @@
       <c r="F35" t="s">
         <v>206</v>
       </c>
+      <c r="G35" t="s">
+        <v>206</v>
+      </c>
+      <c r="H35" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" t="s">
+        <v>206</v>
+      </c>
+      <c r="J35" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" t="s">
+        <v>206</v>
+      </c>
+      <c r="L35" t="s">
+        <v>206</v>
+      </c>
+      <c r="M35" t="s">
+        <v>206</v>
+      </c>
+      <c r="N35" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
@@ -3240,6 +3528,30 @@
       <c r="F40" t="s">
         <v>206</v>
       </c>
+      <c r="G40" t="s">
+        <v>206</v>
+      </c>
+      <c r="H40" t="s">
+        <v>206</v>
+      </c>
+      <c r="I40" t="s">
+        <v>206</v>
+      </c>
+      <c r="J40" t="s">
+        <v>206</v>
+      </c>
+      <c r="K40" t="s">
+        <v>206</v>
+      </c>
+      <c r="L40" t="s">
+        <v>206</v>
+      </c>
+      <c r="M40" t="s">
+        <v>206</v>
+      </c>
+      <c r="N40" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
@@ -3436,6 +3748,30 @@
       <c r="F45" t="s">
         <v>206</v>
       </c>
+      <c r="G45" t="s">
+        <v>206</v>
+      </c>
+      <c r="H45" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" t="s">
+        <v>206</v>
+      </c>
+      <c r="J45" t="s">
+        <v>206</v>
+      </c>
+      <c r="K45" t="s">
+        <v>206</v>
+      </c>
+      <c r="L45" t="s">
+        <v>206</v>
+      </c>
+      <c r="M45" t="s">
+        <v>206</v>
+      </c>
+      <c r="N45" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
@@ -3500,6 +3836,30 @@
       <c r="F47" t="s">
         <v>206</v>
       </c>
+      <c r="G47" t="s">
+        <v>206</v>
+      </c>
+      <c r="H47" t="s">
+        <v>206</v>
+      </c>
+      <c r="I47" t="s">
+        <v>206</v>
+      </c>
+      <c r="J47" t="s">
+        <v>206</v>
+      </c>
+      <c r="K47" t="s">
+        <v>206</v>
+      </c>
+      <c r="L47" t="s">
+        <v>206</v>
+      </c>
+      <c r="M47" t="s">
+        <v>206</v>
+      </c>
+      <c r="N47" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
@@ -3652,6 +4012,30 @@
       <c r="F51" t="s">
         <v>206</v>
       </c>
+      <c r="G51" t="s">
+        <v>206</v>
+      </c>
+      <c r="H51" t="s">
+        <v>206</v>
+      </c>
+      <c r="I51" t="s">
+        <v>206</v>
+      </c>
+      <c r="J51" t="s">
+        <v>206</v>
+      </c>
+      <c r="K51" t="s">
+        <v>206</v>
+      </c>
+      <c r="L51" t="s">
+        <v>206</v>
+      </c>
+      <c r="M51" t="s">
+        <v>206</v>
+      </c>
+      <c r="N51" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
@@ -3760,6 +4144,30 @@
       <c r="F54" t="s">
         <v>206</v>
       </c>
+      <c r="G54" t="s">
+        <v>206</v>
+      </c>
+      <c r="H54" t="s">
+        <v>206</v>
+      </c>
+      <c r="I54" t="s">
+        <v>206</v>
+      </c>
+      <c r="J54" t="s">
+        <v>206</v>
+      </c>
+      <c r="K54" t="s">
+        <v>206</v>
+      </c>
+      <c r="L54" t="s">
+        <v>206</v>
+      </c>
+      <c r="M54" t="s">
+        <v>206</v>
+      </c>
+      <c r="N54" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
@@ -3780,6 +4188,30 @@
       <c r="F55" t="s">
         <v>206</v>
       </c>
+      <c r="G55" t="s">
+        <v>206</v>
+      </c>
+      <c r="H55" t="s">
+        <v>206</v>
+      </c>
+      <c r="I55" t="s">
+        <v>206</v>
+      </c>
+      <c r="J55" t="s">
+        <v>206</v>
+      </c>
+      <c r="K55" t="s">
+        <v>206</v>
+      </c>
+      <c r="L55" t="s">
+        <v>206</v>
+      </c>
+      <c r="M55" t="s">
+        <v>206</v>
+      </c>
+      <c r="N55" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -3844,6 +4276,30 @@
       <c r="F57" t="s">
         <v>206</v>
       </c>
+      <c r="G57" t="s">
+        <v>206</v>
+      </c>
+      <c r="H57" t="s">
+        <v>206</v>
+      </c>
+      <c r="I57" t="s">
+        <v>206</v>
+      </c>
+      <c r="J57" t="s">
+        <v>206</v>
+      </c>
+      <c r="K57" t="s">
+        <v>206</v>
+      </c>
+      <c r="L57" t="s">
+        <v>206</v>
+      </c>
+      <c r="M57" t="s">
+        <v>206</v>
+      </c>
+      <c r="N57" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
@@ -3952,6 +4408,30 @@
       <c r="F60" t="s">
         <v>206</v>
       </c>
+      <c r="G60" t="s">
+        <v>206</v>
+      </c>
+      <c r="H60" t="s">
+        <v>206</v>
+      </c>
+      <c r="I60" t="s">
+        <v>206</v>
+      </c>
+      <c r="J60" t="s">
+        <v>206</v>
+      </c>
+      <c r="K60" t="s">
+        <v>206</v>
+      </c>
+      <c r="L60" t="s">
+        <v>206</v>
+      </c>
+      <c r="M60" t="s">
+        <v>206</v>
+      </c>
+      <c r="N60" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
@@ -4060,6 +4540,30 @@
       <c r="F63" t="s">
         <v>206</v>
       </c>
+      <c r="G63" t="s">
+        <v>206</v>
+      </c>
+      <c r="H63" t="s">
+        <v>206</v>
+      </c>
+      <c r="I63" t="s">
+        <v>206</v>
+      </c>
+      <c r="J63" t="s">
+        <v>206</v>
+      </c>
+      <c r="K63" t="s">
+        <v>206</v>
+      </c>
+      <c r="L63" t="s">
+        <v>206</v>
+      </c>
+      <c r="M63" t="s">
+        <v>206</v>
+      </c>
+      <c r="N63" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
@@ -4124,6 +4628,30 @@
       <c r="F65" t="s">
         <v>206</v>
       </c>
+      <c r="G65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H65" t="s">
+        <v>206</v>
+      </c>
+      <c r="I65" t="s">
+        <v>206</v>
+      </c>
+      <c r="J65" t="s">
+        <v>206</v>
+      </c>
+      <c r="K65" t="s">
+        <v>206</v>
+      </c>
+      <c r="L65" t="s">
+        <v>206</v>
+      </c>
+      <c r="M65" t="s">
+        <v>206</v>
+      </c>
+      <c r="N65" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4144,6 +4672,30 @@
       <c r="F66" t="s">
         <v>206</v>
       </c>
+      <c r="G66" t="s">
+        <v>206</v>
+      </c>
+      <c r="H66" t="s">
+        <v>206</v>
+      </c>
+      <c r="I66" t="s">
+        <v>206</v>
+      </c>
+      <c r="J66" t="s">
+        <v>206</v>
+      </c>
+      <c r="K66" t="s">
+        <v>206</v>
+      </c>
+      <c r="L66" t="s">
+        <v>206</v>
+      </c>
+      <c r="M66" t="s">
+        <v>206</v>
+      </c>
+      <c r="N66" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
@@ -4164,6 +4716,30 @@
       <c r="F67" t="s">
         <v>206</v>
       </c>
+      <c r="G67" t="s">
+        <v>206</v>
+      </c>
+      <c r="H67" t="s">
+        <v>206</v>
+      </c>
+      <c r="I67" t="s">
+        <v>206</v>
+      </c>
+      <c r="J67" t="s">
+        <v>206</v>
+      </c>
+      <c r="K67" t="s">
+        <v>206</v>
+      </c>
+      <c r="L67" t="s">
+        <v>206</v>
+      </c>
+      <c r="M67" t="s">
+        <v>206</v>
+      </c>
+      <c r="N67" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
@@ -4228,6 +4804,30 @@
       <c r="F69" t="s">
         <v>206</v>
       </c>
+      <c r="G69" t="s">
+        <v>206</v>
+      </c>
+      <c r="H69" t="s">
+        <v>206</v>
+      </c>
+      <c r="I69" t="s">
+        <v>206</v>
+      </c>
+      <c r="J69" t="s">
+        <v>206</v>
+      </c>
+      <c r="K69" t="s">
+        <v>206</v>
+      </c>
+      <c r="L69" t="s">
+        <v>206</v>
+      </c>
+      <c r="M69" t="s">
+        <v>206</v>
+      </c>
+      <c r="N69" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
@@ -4380,6 +4980,30 @@
       <c r="F73" t="s">
         <v>206</v>
       </c>
+      <c r="G73" t="s">
+        <v>206</v>
+      </c>
+      <c r="H73" t="s">
+        <v>206</v>
+      </c>
+      <c r="I73" t="s">
+        <v>206</v>
+      </c>
+      <c r="J73" t="s">
+        <v>206</v>
+      </c>
+      <c r="K73" t="s">
+        <v>206</v>
+      </c>
+      <c r="L73" t="s">
+        <v>206</v>
+      </c>
+      <c r="M73" t="s">
+        <v>206</v>
+      </c>
+      <c r="N73" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
@@ -4532,6 +5156,30 @@
       <c r="F77" t="s">
         <v>206</v>
       </c>
+      <c r="G77" t="s">
+        <v>206</v>
+      </c>
+      <c r="H77" t="s">
+        <v>206</v>
+      </c>
+      <c r="I77" t="s">
+        <v>206</v>
+      </c>
+      <c r="J77" t="s">
+        <v>206</v>
+      </c>
+      <c r="K77" t="s">
+        <v>206</v>
+      </c>
+      <c r="L77" t="s">
+        <v>206</v>
+      </c>
+      <c r="M77" t="s">
+        <v>206</v>
+      </c>
+      <c r="N77" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
@@ -4772,6 +5420,30 @@
       <c r="F83" t="s">
         <v>206</v>
       </c>
+      <c r="G83" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83" t="s">
+        <v>206</v>
+      </c>
+      <c r="I83" t="s">
+        <v>206</v>
+      </c>
+      <c r="J83" t="s">
+        <v>206</v>
+      </c>
+      <c r="K83" t="s">
+        <v>206</v>
+      </c>
+      <c r="L83" t="s">
+        <v>206</v>
+      </c>
+      <c r="M83" t="s">
+        <v>206</v>
+      </c>
+      <c r="N83" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
@@ -4792,6 +5464,30 @@
       <c r="F84" t="s">
         <v>206</v>
       </c>
+      <c r="G84" t="s">
+        <v>206</v>
+      </c>
+      <c r="H84" t="s">
+        <v>206</v>
+      </c>
+      <c r="I84" t="s">
+        <v>206</v>
+      </c>
+      <c r="J84" t="s">
+        <v>206</v>
+      </c>
+      <c r="K84" t="s">
+        <v>206</v>
+      </c>
+      <c r="L84" t="s">
+        <v>206</v>
+      </c>
+      <c r="M84" t="s">
+        <v>206</v>
+      </c>
+      <c r="N84" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
@@ -4944,6 +5640,30 @@
       <c r="F88" t="s">
         <v>206</v>
       </c>
+      <c r="G88" t="s">
+        <v>206</v>
+      </c>
+      <c r="H88" t="s">
+        <v>206</v>
+      </c>
+      <c r="I88" t="s">
+        <v>206</v>
+      </c>
+      <c r="J88" t="s">
+        <v>206</v>
+      </c>
+      <c r="K88" t="s">
+        <v>206</v>
+      </c>
+      <c r="L88" t="s">
+        <v>206</v>
+      </c>
+      <c r="M88" t="s">
+        <v>206</v>
+      </c>
+      <c r="N88" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
@@ -4964,6 +5684,30 @@
       <c r="F89" t="s">
         <v>206</v>
       </c>
+      <c r="G89" t="s">
+        <v>206</v>
+      </c>
+      <c r="H89" t="s">
+        <v>206</v>
+      </c>
+      <c r="I89" t="s">
+        <v>206</v>
+      </c>
+      <c r="J89" t="s">
+        <v>206</v>
+      </c>
+      <c r="K89" t="s">
+        <v>206</v>
+      </c>
+      <c r="L89" t="s">
+        <v>206</v>
+      </c>
+      <c r="M89" t="s">
+        <v>206</v>
+      </c>
+      <c r="N89" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
@@ -5028,6 +5772,30 @@
       <c r="F91" t="s">
         <v>206</v>
       </c>
+      <c r="G91" t="s">
+        <v>206</v>
+      </c>
+      <c r="H91" t="s">
+        <v>206</v>
+      </c>
+      <c r="I91" t="s">
+        <v>206</v>
+      </c>
+      <c r="J91" t="s">
+        <v>206</v>
+      </c>
+      <c r="K91" t="s">
+        <v>206</v>
+      </c>
+      <c r="L91" t="s">
+        <v>206</v>
+      </c>
+      <c r="M91" t="s">
+        <v>206</v>
+      </c>
+      <c r="N91" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5268,6 +6036,30 @@
       <c r="F97" t="s">
         <v>206</v>
       </c>
+      <c r="G97" t="s">
+        <v>206</v>
+      </c>
+      <c r="H97" t="s">
+        <v>206</v>
+      </c>
+      <c r="I97" t="s">
+        <v>206</v>
+      </c>
+      <c r="J97" t="s">
+        <v>206</v>
+      </c>
+      <c r="K97" t="s">
+        <v>206</v>
+      </c>
+      <c r="L97" t="s">
+        <v>206</v>
+      </c>
+      <c r="M97" t="s">
+        <v>206</v>
+      </c>
+      <c r="N97" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
@@ -5508,6 +6300,30 @@
       <c r="F103" t="s">
         <v>206</v>
       </c>
+      <c r="G103" t="s">
+        <v>206</v>
+      </c>
+      <c r="H103" t="s">
+        <v>206</v>
+      </c>
+      <c r="I103" t="s">
+        <v>206</v>
+      </c>
+      <c r="J103" t="s">
+        <v>206</v>
+      </c>
+      <c r="K103" t="s">
+        <v>206</v>
+      </c>
+      <c r="L103" t="s">
+        <v>206</v>
+      </c>
+      <c r="M103" t="s">
+        <v>206</v>
+      </c>
+      <c r="N103" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
@@ -5528,6 +6344,30 @@
       <c r="F104" t="s">
         <v>206</v>
       </c>
+      <c r="G104" t="s">
+        <v>206</v>
+      </c>
+      <c r="H104" t="s">
+        <v>206</v>
+      </c>
+      <c r="I104" t="s">
+        <v>206</v>
+      </c>
+      <c r="J104" t="s">
+        <v>206</v>
+      </c>
+      <c r="K104" t="s">
+        <v>206</v>
+      </c>
+      <c r="L104" t="s">
+        <v>206</v>
+      </c>
+      <c r="M104" t="s">
+        <v>206</v>
+      </c>
+      <c r="N104" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1">
@@ -5680,6 +6520,30 @@
       <c r="F108" t="s">
         <v>206</v>
       </c>
+      <c r="G108" t="s">
+        <v>206</v>
+      </c>
+      <c r="H108" t="s">
+        <v>206</v>
+      </c>
+      <c r="I108" t="s">
+        <v>206</v>
+      </c>
+      <c r="J108" t="s">
+        <v>206</v>
+      </c>
+      <c r="K108" t="s">
+        <v>206</v>
+      </c>
+      <c r="L108" t="s">
+        <v>206</v>
+      </c>
+      <c r="M108" t="s">
+        <v>206</v>
+      </c>
+      <c r="N108" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5744,6 +6608,30 @@
       <c r="F110" t="s">
         <v>206</v>
       </c>
+      <c r="G110" t="s">
+        <v>206</v>
+      </c>
+      <c r="H110" t="s">
+        <v>206</v>
+      </c>
+      <c r="I110" t="s">
+        <v>206</v>
+      </c>
+      <c r="J110" t="s">
+        <v>206</v>
+      </c>
+      <c r="K110" t="s">
+        <v>206</v>
+      </c>
+      <c r="L110" t="s">
+        <v>206</v>
+      </c>
+      <c r="M110" t="s">
+        <v>206</v>
+      </c>
+      <c r="N110" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5984,6 +6872,30 @@
       <c r="F116" t="s">
         <v>206</v>
       </c>
+      <c r="G116" t="s">
+        <v>206</v>
+      </c>
+      <c r="H116" t="s">
+        <v>206</v>
+      </c>
+      <c r="I116" t="s">
+        <v>206</v>
+      </c>
+      <c r="J116" t="s">
+        <v>206</v>
+      </c>
+      <c r="K116" t="s">
+        <v>206</v>
+      </c>
+      <c r="L116" t="s">
+        <v>206</v>
+      </c>
+      <c r="M116" t="s">
+        <v>206</v>
+      </c>
+      <c r="N116" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
@@ -6136,6 +7048,30 @@
       <c r="F120" t="s">
         <v>206</v>
       </c>
+      <c r="G120" t="s">
+        <v>206</v>
+      </c>
+      <c r="H120" t="s">
+        <v>206</v>
+      </c>
+      <c r="I120" t="s">
+        <v>206</v>
+      </c>
+      <c r="J120" t="s">
+        <v>206</v>
+      </c>
+      <c r="K120" t="s">
+        <v>206</v>
+      </c>
+      <c r="L120" t="s">
+        <v>206</v>
+      </c>
+      <c r="M120" t="s">
+        <v>206</v>
+      </c>
+      <c r="N120" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
@@ -6244,6 +7180,30 @@
       <c r="F123" t="s">
         <v>206</v>
       </c>
+      <c r="G123" t="s">
+        <v>206</v>
+      </c>
+      <c r="H123" t="s">
+        <v>206</v>
+      </c>
+      <c r="I123" t="s">
+        <v>206</v>
+      </c>
+      <c r="J123" t="s">
+        <v>206</v>
+      </c>
+      <c r="K123" t="s">
+        <v>206</v>
+      </c>
+      <c r="L123" t="s">
+        <v>206</v>
+      </c>
+      <c r="M123" t="s">
+        <v>206</v>
+      </c>
+      <c r="N123" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6264,6 +7224,30 @@
       <c r="F124" t="s">
         <v>206</v>
       </c>
+      <c r="G124" t="s">
+        <v>206</v>
+      </c>
+      <c r="H124" t="s">
+        <v>206</v>
+      </c>
+      <c r="I124" t="s">
+        <v>206</v>
+      </c>
+      <c r="J124" t="s">
+        <v>206</v>
+      </c>
+      <c r="K124" t="s">
+        <v>206</v>
+      </c>
+      <c r="L124" t="s">
+        <v>206</v>
+      </c>
+      <c r="M124" t="s">
+        <v>206</v>
+      </c>
+      <c r="N124" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
@@ -6284,6 +7268,30 @@
       <c r="F125" t="s">
         <v>206</v>
       </c>
+      <c r="G125" t="s">
+        <v>206</v>
+      </c>
+      <c r="H125" t="s">
+        <v>206</v>
+      </c>
+      <c r="I125" t="s">
+        <v>206</v>
+      </c>
+      <c r="J125" t="s">
+        <v>206</v>
+      </c>
+      <c r="K125" t="s">
+        <v>206</v>
+      </c>
+      <c r="L125" t="s">
+        <v>206</v>
+      </c>
+      <c r="M125" t="s">
+        <v>206</v>
+      </c>
+      <c r="N125" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
@@ -6436,6 +7444,30 @@
       <c r="F129" t="s">
         <v>206</v>
       </c>
+      <c r="G129" t="s">
+        <v>206</v>
+      </c>
+      <c r="H129" t="s">
+        <v>206</v>
+      </c>
+      <c r="I129" t="s">
+        <v>206</v>
+      </c>
+      <c r="J129" t="s">
+        <v>206</v>
+      </c>
+      <c r="K129" t="s">
+        <v>206</v>
+      </c>
+      <c r="L129" t="s">
+        <v>206</v>
+      </c>
+      <c r="M129" t="s">
+        <v>206</v>
+      </c>
+      <c r="N129" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
@@ -6676,6 +7708,30 @@
       <c r="F135" t="s">
         <v>206</v>
       </c>
+      <c r="G135" t="s">
+        <v>206</v>
+      </c>
+      <c r="H135" t="s">
+        <v>206</v>
+      </c>
+      <c r="I135" t="s">
+        <v>206</v>
+      </c>
+      <c r="J135" t="s">
+        <v>206</v>
+      </c>
+      <c r="K135" t="s">
+        <v>206</v>
+      </c>
+      <c r="L135" t="s">
+        <v>206</v>
+      </c>
+      <c r="M135" t="s">
+        <v>206</v>
+      </c>
+      <c r="N135" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6740,6 +7796,30 @@
       <c r="F137" t="s">
         <v>206</v>
       </c>
+      <c r="G137" t="s">
+        <v>206</v>
+      </c>
+      <c r="H137" t="s">
+        <v>206</v>
+      </c>
+      <c r="I137" t="s">
+        <v>206</v>
+      </c>
+      <c r="J137" t="s">
+        <v>206</v>
+      </c>
+      <c r="K137" t="s">
+        <v>206</v>
+      </c>
+      <c r="L137" t="s">
+        <v>206</v>
+      </c>
+      <c r="M137" t="s">
+        <v>206</v>
+      </c>
+      <c r="N137" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
@@ -7024,6 +8104,30 @@
       <c r="F144" t="s">
         <v>206</v>
       </c>
+      <c r="G144" t="s">
+        <v>206</v>
+      </c>
+      <c r="H144" t="s">
+        <v>206</v>
+      </c>
+      <c r="I144" t="s">
+        <v>206</v>
+      </c>
+      <c r="J144" t="s">
+        <v>206</v>
+      </c>
+      <c r="K144" t="s">
+        <v>206</v>
+      </c>
+      <c r="L144" t="s">
+        <v>206</v>
+      </c>
+      <c r="M144" t="s">
+        <v>206</v>
+      </c>
+      <c r="N144" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -7264,6 +8368,30 @@
       <c r="F150" t="s">
         <v>206</v>
       </c>
+      <c r="G150" t="s">
+        <v>206</v>
+      </c>
+      <c r="H150" t="s">
+        <v>206</v>
+      </c>
+      <c r="I150" t="s">
+        <v>206</v>
+      </c>
+      <c r="J150" t="s">
+        <v>206</v>
+      </c>
+      <c r="K150" t="s">
+        <v>206</v>
+      </c>
+      <c r="L150" t="s">
+        <v>206</v>
+      </c>
+      <c r="M150" t="s">
+        <v>206</v>
+      </c>
+      <c r="N150" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
@@ -7328,6 +8456,30 @@
       <c r="F152" t="s">
         <v>206</v>
       </c>
+      <c r="G152" t="s">
+        <v>206</v>
+      </c>
+      <c r="H152" t="s">
+        <v>206</v>
+      </c>
+      <c r="I152" t="s">
+        <v>206</v>
+      </c>
+      <c r="J152" t="s">
+        <v>206</v>
+      </c>
+      <c r="K152" t="s">
+        <v>206</v>
+      </c>
+      <c r="L152" t="s">
+        <v>206</v>
+      </c>
+      <c r="M152" t="s">
+        <v>206</v>
+      </c>
+      <c r="N152" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
@@ -7392,6 +8544,30 @@
       <c r="F154" t="s">
         <v>206</v>
       </c>
+      <c r="G154" t="s">
+        <v>206</v>
+      </c>
+      <c r="H154" t="s">
+        <v>206</v>
+      </c>
+      <c r="I154" t="s">
+        <v>206</v>
+      </c>
+      <c r="J154" t="s">
+        <v>206</v>
+      </c>
+      <c r="K154" t="s">
+        <v>206</v>
+      </c>
+      <c r="L154" t="s">
+        <v>206</v>
+      </c>
+      <c r="M154" t="s">
+        <v>206</v>
+      </c>
+      <c r="N154" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
@@ -7500,6 +8676,30 @@
       <c r="F157" t="s">
         <v>206</v>
       </c>
+      <c r="G157" t="s">
+        <v>206</v>
+      </c>
+      <c r="H157" t="s">
+        <v>206</v>
+      </c>
+      <c r="I157" t="s">
+        <v>206</v>
+      </c>
+      <c r="J157" t="s">
+        <v>206</v>
+      </c>
+      <c r="K157" t="s">
+        <v>206</v>
+      </c>
+      <c r="L157" t="s">
+        <v>206</v>
+      </c>
+      <c r="M157" t="s">
+        <v>206</v>
+      </c>
+      <c r="N157" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
@@ -7520,6 +8720,30 @@
       <c r="F158" t="s">
         <v>206</v>
       </c>
+      <c r="G158" t="s">
+        <v>206</v>
+      </c>
+      <c r="H158" t="s">
+        <v>206</v>
+      </c>
+      <c r="I158" t="s">
+        <v>206</v>
+      </c>
+      <c r="J158" t="s">
+        <v>206</v>
+      </c>
+      <c r="K158" t="s">
+        <v>206</v>
+      </c>
+      <c r="L158" t="s">
+        <v>206</v>
+      </c>
+      <c r="M158" t="s">
+        <v>206</v>
+      </c>
+      <c r="N158" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
@@ -7628,6 +8852,30 @@
       <c r="F161" t="s">
         <v>206</v>
       </c>
+      <c r="G161" t="s">
+        <v>206</v>
+      </c>
+      <c r="H161" t="s">
+        <v>206</v>
+      </c>
+      <c r="I161" t="s">
+        <v>206</v>
+      </c>
+      <c r="J161" t="s">
+        <v>206</v>
+      </c>
+      <c r="K161" t="s">
+        <v>206</v>
+      </c>
+      <c r="L161" t="s">
+        <v>206</v>
+      </c>
+      <c r="M161" t="s">
+        <v>206</v>
+      </c>
+      <c r="N161" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
@@ -7912,6 +9160,30 @@
       <c r="F168" t="s">
         <v>206</v>
       </c>
+      <c r="G168" t="s">
+        <v>206</v>
+      </c>
+      <c r="H168" t="s">
+        <v>206</v>
+      </c>
+      <c r="I168" t="s">
+        <v>206</v>
+      </c>
+      <c r="J168" t="s">
+        <v>206</v>
+      </c>
+      <c r="K168" t="s">
+        <v>206</v>
+      </c>
+      <c r="L168" t="s">
+        <v>206</v>
+      </c>
+      <c r="M168" t="s">
+        <v>206</v>
+      </c>
+      <c r="N168" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1">
@@ -7932,6 +9204,30 @@
       <c r="F169" t="s">
         <v>206</v>
       </c>
+      <c r="G169" t="s">
+        <v>206</v>
+      </c>
+      <c r="H169" t="s">
+        <v>206</v>
+      </c>
+      <c r="I169" t="s">
+        <v>206</v>
+      </c>
+      <c r="J169" t="s">
+        <v>206</v>
+      </c>
+      <c r="K169" t="s">
+        <v>206</v>
+      </c>
+      <c r="L169" t="s">
+        <v>206</v>
+      </c>
+      <c r="M169" t="s">
+        <v>206</v>
+      </c>
+      <c r="N169" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
@@ -7952,6 +9248,30 @@
       <c r="F170" t="s">
         <v>206</v>
       </c>
+      <c r="G170" t="s">
+        <v>206</v>
+      </c>
+      <c r="H170" t="s">
+        <v>206</v>
+      </c>
+      <c r="I170" t="s">
+        <v>206</v>
+      </c>
+      <c r="J170" t="s">
+        <v>206</v>
+      </c>
+      <c r="K170" t="s">
+        <v>206</v>
+      </c>
+      <c r="L170" t="s">
+        <v>206</v>
+      </c>
+      <c r="M170" t="s">
+        <v>206</v>
+      </c>
+      <c r="N170" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -8016,6 +9336,30 @@
       <c r="F172" t="s">
         <v>206</v>
       </c>
+      <c r="G172" t="s">
+        <v>206</v>
+      </c>
+      <c r="H172" t="s">
+        <v>206</v>
+      </c>
+      <c r="I172" t="s">
+        <v>206</v>
+      </c>
+      <c r="J172" t="s">
+        <v>206</v>
+      </c>
+      <c r="K172" t="s">
+        <v>206</v>
+      </c>
+      <c r="L172" t="s">
+        <v>206</v>
+      </c>
+      <c r="M172" t="s">
+        <v>206</v>
+      </c>
+      <c r="N172" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
@@ -8080,6 +9424,30 @@
       <c r="F174" t="s">
         <v>206</v>
       </c>
+      <c r="G174" t="s">
+        <v>206</v>
+      </c>
+      <c r="H174" t="s">
+        <v>206</v>
+      </c>
+      <c r="I174" t="s">
+        <v>206</v>
+      </c>
+      <c r="J174" t="s">
+        <v>206</v>
+      </c>
+      <c r="K174" t="s">
+        <v>206</v>
+      </c>
+      <c r="L174" t="s">
+        <v>206</v>
+      </c>
+      <c r="M174" t="s">
+        <v>206</v>
+      </c>
+      <c r="N174" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
@@ -8144,6 +9512,30 @@
       <c r="F176" t="s">
         <v>206</v>
       </c>
+      <c r="G176" t="s">
+        <v>206</v>
+      </c>
+      <c r="H176" t="s">
+        <v>206</v>
+      </c>
+      <c r="I176" t="s">
+        <v>206</v>
+      </c>
+      <c r="J176" t="s">
+        <v>206</v>
+      </c>
+      <c r="K176" t="s">
+        <v>206</v>
+      </c>
+      <c r="L176" t="s">
+        <v>206</v>
+      </c>
+      <c r="M176" t="s">
+        <v>206</v>
+      </c>
+      <c r="N176" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="1">
@@ -8208,6 +9600,30 @@
       <c r="F178" t="s">
         <v>206</v>
       </c>
+      <c r="G178" t="s">
+        <v>206</v>
+      </c>
+      <c r="H178" t="s">
+        <v>206</v>
+      </c>
+      <c r="I178" t="s">
+        <v>206</v>
+      </c>
+      <c r="J178" t="s">
+        <v>206</v>
+      </c>
+      <c r="K178" t="s">
+        <v>206</v>
+      </c>
+      <c r="L178" t="s">
+        <v>206</v>
+      </c>
+      <c r="M178" t="s">
+        <v>206</v>
+      </c>
+      <c r="N178" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
@@ -8404,6 +9820,30 @@
       <c r="F183" t="s">
         <v>206</v>
       </c>
+      <c r="G183" t="s">
+        <v>206</v>
+      </c>
+      <c r="H183" t="s">
+        <v>206</v>
+      </c>
+      <c r="I183" t="s">
+        <v>206</v>
+      </c>
+      <c r="J183" t="s">
+        <v>206</v>
+      </c>
+      <c r="K183" t="s">
+        <v>206</v>
+      </c>
+      <c r="L183" t="s">
+        <v>206</v>
+      </c>
+      <c r="M183" t="s">
+        <v>206</v>
+      </c>
+      <c r="N183" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
@@ -8512,6 +9952,30 @@
       <c r="F186" t="s">
         <v>206</v>
       </c>
+      <c r="G186" t="s">
+        <v>206</v>
+      </c>
+      <c r="H186" t="s">
+        <v>206</v>
+      </c>
+      <c r="I186" t="s">
+        <v>206</v>
+      </c>
+      <c r="J186" t="s">
+        <v>206</v>
+      </c>
+      <c r="K186" t="s">
+        <v>206</v>
+      </c>
+      <c r="L186" t="s">
+        <v>206</v>
+      </c>
+      <c r="M186" t="s">
+        <v>206</v>
+      </c>
+      <c r="N186" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
@@ -8532,6 +9996,30 @@
       <c r="F187" t="s">
         <v>206</v>
       </c>
+      <c r="G187" t="s">
+        <v>206</v>
+      </c>
+      <c r="H187" t="s">
+        <v>206</v>
+      </c>
+      <c r="I187" t="s">
+        <v>206</v>
+      </c>
+      <c r="J187" t="s">
+        <v>206</v>
+      </c>
+      <c r="K187" t="s">
+        <v>206</v>
+      </c>
+      <c r="L187" t="s">
+        <v>206</v>
+      </c>
+      <c r="M187" t="s">
+        <v>206</v>
+      </c>
+      <c r="N187" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
@@ -8552,6 +10040,30 @@
       <c r="F188" t="s">
         <v>206</v>
       </c>
+      <c r="G188" t="s">
+        <v>206</v>
+      </c>
+      <c r="H188" t="s">
+        <v>206</v>
+      </c>
+      <c r="I188" t="s">
+        <v>206</v>
+      </c>
+      <c r="J188" t="s">
+        <v>206</v>
+      </c>
+      <c r="K188" t="s">
+        <v>206</v>
+      </c>
+      <c r="L188" t="s">
+        <v>206</v>
+      </c>
+      <c r="M188" t="s">
+        <v>206</v>
+      </c>
+      <c r="N188" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
@@ -8702,6 +10214,30 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
+        <v>206</v>
+      </c>
+      <c r="G192" t="s">
+        <v>206</v>
+      </c>
+      <c r="H192" t="s">
+        <v>206</v>
+      </c>
+      <c r="I192" t="s">
+        <v>206</v>
+      </c>
+      <c r="J192" t="s">
+        <v>206</v>
+      </c>
+      <c r="K192" t="s">
+        <v>206</v>
+      </c>
+      <c r="L192" t="s">
+        <v>206</v>
+      </c>
+      <c r="M192" t="s">
+        <v>206</v>
+      </c>
+      <c r="N192" t="s">
         <v>206</v>
       </c>
     </row>

--- a/sequences/05_retrieval_1.xlsx
+++ b/sequences/05_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>nennen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>schnellen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>klingeln</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>kratzen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>nutzen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>leiden</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
     <t>zielen</t>
   </si>
   <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>prüfen</t>
+    <t>fassen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>schauen</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>stimmen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>fällen</t>
   </si>
   <si>
     <t>fesseln</t>
   </si>
   <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>schlagen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>herzen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
     <t>spannen</t>
   </si>
   <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>schätzen</t>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>ahnen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
   </si>
   <si>
     <t>betteln</t>
   </si>
   <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>beichten</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>brauen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>zeichnen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>bomben</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>prügeln</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>gelten</t>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>schwächen</t>
   </si>
   <si>
     <t>rücken</t>
   </si>
   <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>melden</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>schwören</t>
+    <t>morden</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>trösten</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>treffen</t>
   </si>
   <si>
     <t>füllen</t>
   </si>
   <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>regen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>schlafen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>folgen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>feiern</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>hängen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>schwächen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>platzen</t>
   </si>
   <si>
     <t>posten</t>
   </si>
   <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>polen</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>beten</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>leiden</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
     <t>heilen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>lauten</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>zittern</t>
-  </si>
-  <si>
-    <t>atmen</t>
   </si>
   <si>
     <t>house/house027.jpg</t>
